--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifne-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifne-Ifnar1.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04056466666666667</v>
+        <v>0.057308</v>
       </c>
       <c r="H2">
-        <v>0.121694</v>
+        <v>0.171924</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.374092</v>
+        <v>21.602164</v>
       </c>
       <c r="N2">
-        <v>55.122276</v>
+        <v>64.80649199999999</v>
       </c>
       <c r="O2">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="P2">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="Q2">
-        <v>0.7453389172826668</v>
+        <v>1.237976814512</v>
       </c>
       <c r="R2">
-        <v>6.708050255544</v>
+        <v>11.141791330608</v>
       </c>
       <c r="S2">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="T2">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.04056466666666667</v>
+        <v>0.057308</v>
       </c>
       <c r="H3">
-        <v>0.121694</v>
+        <v>0.171924</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>61.56292500000001</v>
       </c>
       <c r="O3">
-        <v>0.2763818225793275</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="P3">
-        <v>0.2763818225793274</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="Q3">
-        <v>0.8324265105500003</v>
+        <v>1.1760160353</v>
       </c>
       <c r="R3">
-        <v>7.491838594950002</v>
+        <v>10.5841443177</v>
       </c>
       <c r="S3">
-        <v>0.2763818225793275</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="T3">
-        <v>0.2763818225793274</v>
+        <v>0.2379112932771326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04056466666666667</v>
+        <v>0.057308</v>
       </c>
       <c r="H4">
-        <v>0.121694</v>
+        <v>0.171924</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.177119333333334</v>
+        <v>11.57857933333334</v>
       </c>
       <c r="N4">
-        <v>21.531358</v>
+        <v>34.735738</v>
       </c>
       <c r="O4">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806403</v>
       </c>
       <c r="P4">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806404</v>
       </c>
       <c r="Q4">
-        <v>0.2911374533835556</v>
+        <v>0.6635452244346668</v>
       </c>
       <c r="R4">
-        <v>2.620237080452001</v>
+        <v>5.971907019912001</v>
       </c>
       <c r="S4">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806403</v>
       </c>
       <c r="T4">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04056466666666667</v>
+        <v>0.057308</v>
       </c>
       <c r="H5">
-        <v>0.121694</v>
+        <v>0.171924</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.17645566666667</v>
+        <v>32.55301433333333</v>
       </c>
       <c r="N5">
-        <v>84.52936700000001</v>
+        <v>97.659043</v>
       </c>
       <c r="O5">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326823</v>
       </c>
       <c r="P5">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326824</v>
       </c>
       <c r="Q5">
-        <v>1.142968531966445</v>
+        <v>1.865548145414666</v>
       </c>
       <c r="R5">
-        <v>10.286716787698</v>
+        <v>16.789933308732</v>
       </c>
       <c r="S5">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326823</v>
       </c>
       <c r="T5">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326824</v>
       </c>
     </row>
   </sheetData>
